--- a/data/pca/factorExposure/factorExposure_2009-09-10.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-09-10.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01794914220365377</v>
+        <v>0.01664837409645055</v>
       </c>
       <c r="C2">
-        <v>0.001502900373177274</v>
+        <v>0.0008199558534831685</v>
       </c>
       <c r="D2">
-        <v>-0.002276092800851315</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009583016792520365</v>
+      </c>
+      <c r="E2">
+        <v>-0.002128116703513554</v>
+      </c>
+      <c r="F2">
+        <v>-0.01196684249080054</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.0982293167460941</v>
+        <v>0.09394175601154613</v>
       </c>
       <c r="C4">
-        <v>0.02104166434811478</v>
+        <v>0.01448879411801405</v>
       </c>
       <c r="D4">
-        <v>-0.0617604643963082</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.0838500042028089</v>
+      </c>
+      <c r="E4">
+        <v>-0.02779320062195866</v>
+      </c>
+      <c r="F4">
+        <v>0.03179806705097159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1471558591936084</v>
+        <v>0.1592447297271778</v>
       </c>
       <c r="C6">
-        <v>0.0270994920624502</v>
+        <v>0.02667538371153563</v>
       </c>
       <c r="D6">
-        <v>0.02297260174084811</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02333211868666005</v>
+      </c>
+      <c r="E6">
+        <v>-0.01058212252350749</v>
+      </c>
+      <c r="F6">
+        <v>0.04353115527024533</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.06596615842275494</v>
+        <v>0.06364539525183896</v>
       </c>
       <c r="C7">
-        <v>0.003311519694209593</v>
+        <v>-0.001643899647424177</v>
       </c>
       <c r="D7">
-        <v>-0.0363283986265672</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05252026219985504</v>
+      </c>
+      <c r="E7">
+        <v>-0.01146370886478123</v>
+      </c>
+      <c r="F7">
+        <v>0.04661192706419256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06572758213061503</v>
+        <v>0.05756776122720643</v>
       </c>
       <c r="C8">
-        <v>-0.00960787174026731</v>
+        <v>-0.01327276120800789</v>
       </c>
       <c r="D8">
-        <v>-0.01294732901518009</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03238126466937506</v>
+      </c>
+      <c r="E8">
+        <v>-0.01799606115007759</v>
+      </c>
+      <c r="F8">
+        <v>-0.02584755815113599</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.07636829331089934</v>
+        <v>0.07090031126768906</v>
       </c>
       <c r="C9">
-        <v>0.017489954498632</v>
+        <v>0.01021029855630405</v>
       </c>
       <c r="D9">
-        <v>-0.06346021523595681</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08689753378166964</v>
+      </c>
+      <c r="E9">
+        <v>-0.02255712916735501</v>
+      </c>
+      <c r="F9">
+        <v>0.04600184436783208</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.07920973691254761</v>
+        <v>0.09132821487136442</v>
       </c>
       <c r="C10">
-        <v>0.01178246931271833</v>
+        <v>0.02100370817823771</v>
       </c>
       <c r="D10">
-        <v>0.1652268156228012</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1639304397515139</v>
+      </c>
+      <c r="E10">
+        <v>0.03126087451843243</v>
+      </c>
+      <c r="F10">
+        <v>-0.05668646491530917</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09548745323393679</v>
+        <v>0.08821415989900587</v>
       </c>
       <c r="C11">
-        <v>0.0181101130564622</v>
+        <v>0.01031236444498921</v>
       </c>
       <c r="D11">
-        <v>-0.09052133067209436</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1171190058213567</v>
+      </c>
+      <c r="E11">
+        <v>-0.0450177936271223</v>
+      </c>
+      <c r="F11">
+        <v>0.02348296795399878</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.1020172814917617</v>
+        <v>0.09204051210776291</v>
       </c>
       <c r="C12">
-        <v>0.01613141280753561</v>
+        <v>0.007695130690322394</v>
       </c>
       <c r="D12">
-        <v>-0.09417498420700661</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1314660223806441</v>
+      </c>
+      <c r="E12">
+        <v>-0.0445321132817612</v>
+      </c>
+      <c r="F12">
+        <v>0.03109476753217943</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04237549711049958</v>
+        <v>0.04136120818378285</v>
       </c>
       <c r="C13">
-        <v>0.006223576335544457</v>
+        <v>0.002373147247448915</v>
       </c>
       <c r="D13">
-        <v>-0.03009527937978414</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05291787415065811</v>
+      </c>
+      <c r="E13">
+        <v>0.004918906281411542</v>
+      </c>
+      <c r="F13">
+        <v>0.002533578315620415</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02162324804418958</v>
+        <v>0.0240154758979582</v>
       </c>
       <c r="C14">
-        <v>0.01528753662529737</v>
+        <v>0.01376094084677801</v>
       </c>
       <c r="D14">
-        <v>-0.02131604111645309</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03339083688326029</v>
+      </c>
+      <c r="E14">
+        <v>-0.01845659386769997</v>
+      </c>
+      <c r="F14">
+        <v>0.01351483111102386</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03623479356699132</v>
+        <v>0.0328893997350306</v>
       </c>
       <c r="C15">
-        <v>0.007978443490771295</v>
+        <v>0.004624398100662416</v>
       </c>
       <c r="D15">
-        <v>-0.02489439195543239</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04515749027377299</v>
+      </c>
+      <c r="E15">
+        <v>-0.005607095984941495</v>
+      </c>
+      <c r="F15">
+        <v>0.02510319943305985</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.08182932432442676</v>
+        <v>0.0743340964287672</v>
       </c>
       <c r="C16">
-        <v>0.008923127685616943</v>
+        <v>0.0008552996316866648</v>
       </c>
       <c r="D16">
-        <v>-0.09433934591481064</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.127611021207431</v>
+      </c>
+      <c r="E16">
+        <v>-0.05918362039192766</v>
+      </c>
+      <c r="F16">
+        <v>0.02777975047762543</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0006589664552806962</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.0001923470960358807</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.001506268473788829</v>
+      </c>
+      <c r="E17">
+        <v>-0.001056238509033818</v>
+      </c>
+      <c r="F17">
+        <v>-0.001913390619958428</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.01451204253906791</v>
+        <v>0.03625584303417408</v>
       </c>
       <c r="C18">
-        <v>-0.00315276764292728</v>
+        <v>-0.002931480032607603</v>
       </c>
       <c r="D18">
-        <v>-0.03196057396895134</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01575331799613836</v>
+      </c>
+      <c r="E18">
+        <v>0.008914413108869229</v>
+      </c>
+      <c r="F18">
+        <v>-0.007860858013210147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06599403067375431</v>
+        <v>0.06179494934887193</v>
       </c>
       <c r="C20">
-        <v>0.006804389857405947</v>
+        <v>-3.636231931779659e-05</v>
       </c>
       <c r="D20">
-        <v>-0.04780444451837014</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07780143909622336</v>
+      </c>
+      <c r="E20">
+        <v>-0.05515388130594063</v>
+      </c>
+      <c r="F20">
+        <v>0.0269386111720177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.04511191153644376</v>
+        <v>0.04095490557651626</v>
       </c>
       <c r="C21">
-        <v>0.01039298684697128</v>
+        <v>0.006435339958668255</v>
       </c>
       <c r="D21">
-        <v>-0.01796351894758726</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03795402759585473</v>
+      </c>
+      <c r="E21">
+        <v>0.001399589288460809</v>
+      </c>
+      <c r="F21">
+        <v>-0.02486969215679078</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04153022480513324</v>
+        <v>0.0434954857474821</v>
       </c>
       <c r="C22">
-        <v>0.0006702603218600679</v>
+        <v>0.000306225408755867</v>
       </c>
       <c r="D22">
-        <v>0.01037880887011763</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.004452191912451432</v>
+      </c>
+      <c r="E22">
+        <v>-0.03744584149904343</v>
+      </c>
+      <c r="F22">
+        <v>-0.03790931693889107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04149274197408983</v>
+        <v>0.04347122509546995</v>
       </c>
       <c r="C23">
-        <v>0.0006608215382053879</v>
+        <v>0.0002976940230646715</v>
       </c>
       <c r="D23">
-        <v>0.01036042453901038</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.004468005332783557</v>
+      </c>
+      <c r="E23">
+        <v>-0.03762814579622999</v>
+      </c>
+      <c r="F23">
+        <v>-0.03786911616129168</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08738284472669244</v>
+        <v>0.08005969974810934</v>
       </c>
       <c r="C24">
-        <v>0.009272772889198</v>
+        <v>0.001565893586667842</v>
       </c>
       <c r="D24">
-        <v>-0.09940563534420453</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1203992020153513</v>
+      </c>
+      <c r="E24">
+        <v>-0.04729283131663571</v>
+      </c>
+      <c r="F24">
+        <v>0.02972776066300628</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.09231914852107043</v>
+        <v>0.08513284890856758</v>
       </c>
       <c r="C25">
-        <v>0.0117267568299486</v>
+        <v>0.0042004128391134</v>
       </c>
       <c r="D25">
-        <v>-0.08532860520473291</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1096304279215473</v>
+      </c>
+      <c r="E25">
+        <v>-0.03123199117239085</v>
+      </c>
+      <c r="F25">
+        <v>0.02730061494860785</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05872342717812779</v>
+        <v>0.05896237907434481</v>
       </c>
       <c r="C26">
-        <v>0.01831812385105808</v>
+        <v>0.01438734795708944</v>
       </c>
       <c r="D26">
-        <v>-0.01534699383723895</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04110956631955131</v>
+      </c>
+      <c r="E26">
+        <v>-0.02811913315719583</v>
+      </c>
+      <c r="F26">
+        <v>-0.007009840958143541</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1276233172962746</v>
+        <v>0.1421411396790819</v>
       </c>
       <c r="C28">
-        <v>0.01030199277604352</v>
+        <v>0.02251654241560228</v>
       </c>
       <c r="D28">
-        <v>0.2751015268465944</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2618969043751396</v>
+      </c>
+      <c r="E28">
+        <v>0.06686544920352651</v>
+      </c>
+      <c r="F28">
+        <v>0.003351654168210518</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02702395898759053</v>
+        <v>0.02870218575529327</v>
       </c>
       <c r="C29">
-        <v>0.009935225338727566</v>
+        <v>0.008681257926644214</v>
       </c>
       <c r="D29">
-        <v>-0.01932128097448639</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03142509343135876</v>
+      </c>
+      <c r="E29">
+        <v>-0.01373671066771274</v>
+      </c>
+      <c r="F29">
+        <v>-0.01281256648279391</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06909980996664845</v>
+        <v>0.0589385426324238</v>
       </c>
       <c r="C30">
-        <v>0.0105517366820279</v>
+        <v>0.002500206670131774</v>
       </c>
       <c r="D30">
-        <v>-0.05988886541848801</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08927773067011852</v>
+      </c>
+      <c r="E30">
+        <v>-0.01415339351600251</v>
+      </c>
+      <c r="F30">
+        <v>0.07735983312456647</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05185184804996857</v>
+        <v>0.05114055361184627</v>
       </c>
       <c r="C31">
-        <v>0.01690133075795918</v>
+        <v>0.0155106410579951</v>
       </c>
       <c r="D31">
-        <v>-0.0194628350751661</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02474041151455963</v>
+      </c>
+      <c r="E31">
+        <v>-0.02855829346842196</v>
+      </c>
+      <c r="F31">
+        <v>-0.0007663286205890289</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04747125629455868</v>
+        <v>0.05127792901479205</v>
       </c>
       <c r="C32">
-        <v>0.001946913859449168</v>
+        <v>-0.001889797842815458</v>
       </c>
       <c r="D32">
-        <v>-0.01917736789218674</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03649423841130711</v>
+      </c>
+      <c r="E32">
+        <v>-0.03419901216234138</v>
+      </c>
+      <c r="F32">
+        <v>0.003960458626049122</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09423320496948683</v>
+        <v>0.08859386451877814</v>
       </c>
       <c r="C33">
-        <v>0.01425415657690589</v>
+        <v>0.006499054322217087</v>
       </c>
       <c r="D33">
-        <v>-0.07267035028604026</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1024899715561095</v>
+      </c>
+      <c r="E33">
+        <v>-0.0430465666322837</v>
+      </c>
+      <c r="F33">
+        <v>0.03978237351646054</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.07460338879326357</v>
+        <v>0.06790073016219467</v>
       </c>
       <c r="C34">
-        <v>0.0163429804694696</v>
+        <v>0.009961008581000717</v>
       </c>
       <c r="D34">
-        <v>-0.07892649349850467</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1097625860795981</v>
+      </c>
+      <c r="E34">
+        <v>-0.03326110116302194</v>
+      </c>
+      <c r="F34">
+        <v>0.03329675701457184</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02443960283469333</v>
+        <v>0.02544840270489089</v>
       </c>
       <c r="C35">
-        <v>0.002628103239452883</v>
+        <v>0.002538222510539977</v>
       </c>
       <c r="D35">
-        <v>-0.004747727300654508</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01191798629327613</v>
+      </c>
+      <c r="E35">
+        <v>-0.01229195259977994</v>
+      </c>
+      <c r="F35">
+        <v>0.0008518536592624865</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02702168701403223</v>
+        <v>0.02767536617473665</v>
       </c>
       <c r="C36">
-        <v>0.008085601888834974</v>
+        <v>0.006805611452320365</v>
       </c>
       <c r="D36">
-        <v>-0.03835737298016118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.04002070667871056</v>
+      </c>
+      <c r="E36">
+        <v>-0.0164911260459678</v>
+      </c>
+      <c r="F36">
+        <v>0.01534512516780658</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.0004239078705986289</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0006411517549064434</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002400280747316138</v>
+      </c>
+      <c r="E37">
+        <v>0.001014139683016549</v>
+      </c>
+      <c r="F37">
+        <v>-0.001631611247736273</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1208218969720105</v>
+        <v>0.1042294283661429</v>
       </c>
       <c r="C39">
-        <v>0.024771116577758</v>
+        <v>0.01543864343098065</v>
       </c>
       <c r="D39">
-        <v>-0.1336568063953769</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1543065816099357</v>
+      </c>
+      <c r="E39">
+        <v>-0.05790393937866087</v>
+      </c>
+      <c r="F39">
+        <v>0.03110060594474506</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03775927027703703</v>
+        <v>0.04124551588657415</v>
       </c>
       <c r="C40">
-        <v>0.009914947248037752</v>
+        <v>0.007026175521596337</v>
       </c>
       <c r="D40">
-        <v>-0.008817141788323124</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03114798278252947</v>
+      </c>
+      <c r="E40">
+        <v>-0.00204556979590206</v>
+      </c>
+      <c r="F40">
+        <v>-0.01750987306791796</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02511149119292944</v>
+        <v>0.02770233514427627</v>
       </c>
       <c r="C41">
-        <v>0.007310521712601388</v>
+        <v>0.006810774028288146</v>
       </c>
       <c r="D41">
-        <v>-0.01007964687976349</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01102199242277855</v>
+      </c>
+      <c r="E41">
+        <v>-0.01223470906696712</v>
+      </c>
+      <c r="F41">
+        <v>-0.005121888617100802</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.0427137890052093</v>
+        <v>0.04070542817309302</v>
       </c>
       <c r="C43">
-        <v>0.008452368939516374</v>
+        <v>0.007033155773231709</v>
       </c>
       <c r="D43">
-        <v>-0.01142428987069015</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.0189873147875984</v>
+      </c>
+      <c r="E43">
+        <v>-0.02551082541553509</v>
+      </c>
+      <c r="F43">
+        <v>-0.01195851180562168</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.08280799273607159</v>
+        <v>0.07959152122212181</v>
       </c>
       <c r="C44">
-        <v>0.02754875174065564</v>
+        <v>0.01923121724926411</v>
       </c>
       <c r="D44">
-        <v>-0.06779913784471737</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09764472902244195</v>
+      </c>
+      <c r="E44">
+        <v>-0.05872388766372711</v>
+      </c>
+      <c r="F44">
+        <v>0.1571084954441956</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02059545973601174</v>
+        <v>0.02310581494448852</v>
       </c>
       <c r="C46">
-        <v>0.003675773581489513</v>
+        <v>0.003208196936077048</v>
       </c>
       <c r="D46">
-        <v>-0.006892052232449078</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01361810988519896</v>
+      </c>
+      <c r="E46">
+        <v>-0.02601734186387402</v>
+      </c>
+      <c r="F46">
+        <v>-0.005559905666677242</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05387906192057067</v>
+        <v>0.0527629695921102</v>
       </c>
       <c r="C47">
-        <v>0.004561826132986453</v>
+        <v>0.00362100957929489</v>
       </c>
       <c r="D47">
-        <v>-0.005163773934370626</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01246543852196013</v>
+      </c>
+      <c r="E47">
+        <v>-0.02432084723007997</v>
+      </c>
+      <c r="F47">
+        <v>-0.03088872903122584</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.0504440126282659</v>
+        <v>0.05046311781909194</v>
       </c>
       <c r="C48">
-        <v>0.005412358126169126</v>
+        <v>0.002182203382003615</v>
       </c>
       <c r="D48">
-        <v>-0.03962379552156369</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05063110859084009</v>
+      </c>
+      <c r="E48">
+        <v>0.004925372032783837</v>
+      </c>
+      <c r="F48">
+        <v>0.009732948788043075</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2006508854064006</v>
+        <v>0.1997919764101228</v>
       </c>
       <c r="C49">
-        <v>0.02000992489241654</v>
+        <v>0.01891754043067611</v>
       </c>
       <c r="D49">
-        <v>0.01787457261332857</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.007115588157352949</v>
+      </c>
+      <c r="E49">
+        <v>-0.02958022252341435</v>
+      </c>
+      <c r="F49">
+        <v>0.04006864913123909</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.05094100819572584</v>
+        <v>0.05143526153067391</v>
       </c>
       <c r="C50">
-        <v>0.0130820719665966</v>
+        <v>0.01122063742603867</v>
       </c>
       <c r="D50">
-        <v>-0.01883398145429639</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02425114605435922</v>
+      </c>
+      <c r="E50">
+        <v>-0.02981346009477077</v>
+      </c>
+      <c r="F50">
+        <v>0.01059374769594315</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1559769761246161</v>
+        <v>0.1488495112806173</v>
       </c>
       <c r="C52">
-        <v>0.01887023860939565</v>
+        <v>0.01734903578548757</v>
       </c>
       <c r="D52">
-        <v>-0.04871579821512972</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04188192383421043</v>
+      </c>
+      <c r="E52">
+        <v>-0.02011894689041216</v>
+      </c>
+      <c r="F52">
+        <v>0.04388524756521068</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1717351244612754</v>
+        <v>0.1712173982100401</v>
       </c>
       <c r="C53">
-        <v>0.01867922708984415</v>
+        <v>0.01979409675806035</v>
       </c>
       <c r="D53">
-        <v>-0.01612235204734584</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.00496797862163125</v>
+      </c>
+      <c r="E53">
+        <v>-0.02850720171335212</v>
+      </c>
+      <c r="F53">
+        <v>0.07398686565348532</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.02016003629127799</v>
+        <v>0.0204391868602297</v>
       </c>
       <c r="C54">
-        <v>0.01254417927337682</v>
+        <v>0.01117398998494019</v>
       </c>
       <c r="D54">
-        <v>-0.02536546608974635</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03471794540673424</v>
+      </c>
+      <c r="E54">
+        <v>-0.02190617456473867</v>
+      </c>
+      <c r="F54">
+        <v>-0.004387611688245618</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1148018224321262</v>
+        <v>0.1147811617949112</v>
       </c>
       <c r="C55">
-        <v>0.01717160850891133</v>
+        <v>0.01750052345756515</v>
       </c>
       <c r="D55">
-        <v>-0.01129792135176234</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007351280502381552</v>
+      </c>
+      <c r="E55">
+        <v>-0.02349501065339058</v>
+      </c>
+      <c r="F55">
+        <v>0.04750935982973007</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.178757585543859</v>
+        <v>0.1767372881716001</v>
       </c>
       <c r="C56">
-        <v>0.01635905792997564</v>
+        <v>0.01763917157673152</v>
       </c>
       <c r="D56">
-        <v>-0.009860121632770424</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.002374199958773303</v>
+      </c>
+      <c r="E56">
+        <v>-0.03281406112438338</v>
+      </c>
+      <c r="F56">
+        <v>0.05395915127071545</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04853057394106861</v>
+        <v>0.04501536554804412</v>
       </c>
       <c r="C58">
-        <v>0.005617590135102123</v>
+        <v>-0.0004064985151538633</v>
       </c>
       <c r="D58">
-        <v>-0.05697911522426578</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07055267958958367</v>
+      </c>
+      <c r="E58">
+        <v>-0.03151289876122632</v>
+      </c>
+      <c r="F58">
+        <v>-0.03608266389526838</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1571949630634613</v>
+        <v>0.1675808708156513</v>
       </c>
       <c r="C59">
-        <v>0.01188213334234249</v>
+        <v>0.02271183771208449</v>
       </c>
       <c r="D59">
-        <v>0.2289403371482918</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2179340274483565</v>
+      </c>
+      <c r="E59">
+        <v>0.04563264537279711</v>
+      </c>
+      <c r="F59">
+        <v>-0.03464235619945625</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2382233323097393</v>
+        <v>0.2317116514066294</v>
       </c>
       <c r="C60">
-        <v>0.0001482640977341078</v>
+        <v>-0.002090241786523535</v>
       </c>
       <c r="D60">
-        <v>-0.04636855821265983</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03964104541986323</v>
+      </c>
+      <c r="E60">
+        <v>-0.006907124223453094</v>
+      </c>
+      <c r="F60">
+        <v>0.0006154745429605154</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.09146401070992605</v>
+        <v>0.08010721018011073</v>
       </c>
       <c r="C61">
-        <v>0.01851736639636732</v>
+        <v>0.01107642352422047</v>
       </c>
       <c r="D61">
-        <v>-0.09109645083956698</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1174728500746391</v>
+      </c>
+      <c r="E61">
+        <v>-0.03792423468538524</v>
+      </c>
+      <c r="F61">
+        <v>0.0147722136950642</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.171165809446142</v>
+        <v>0.1695795905623528</v>
       </c>
       <c r="C62">
-        <v>0.0205050173877433</v>
+        <v>0.0207137367288077</v>
       </c>
       <c r="D62">
-        <v>-0.003575975778120844</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.004986184611247712</v>
+      </c>
+      <c r="E62">
+        <v>-0.03300633567278915</v>
+      </c>
+      <c r="F62">
+        <v>0.03662555510243554</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04544145266700705</v>
+        <v>0.04554809095872084</v>
       </c>
       <c r="C63">
-        <v>0.006166296791636966</v>
+        <v>0.001602867002491849</v>
       </c>
       <c r="D63">
-        <v>-0.04006164677635931</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05904264177978914</v>
+      </c>
+      <c r="E63">
+        <v>-0.02279238699042951</v>
+      </c>
+      <c r="F63">
+        <v>0.003649568705350287</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.112075478675318</v>
+        <v>0.110842884557549</v>
       </c>
       <c r="C64">
-        <v>0.01466142891188481</v>
+        <v>0.01146251924304379</v>
       </c>
       <c r="D64">
-        <v>-0.03021670526254852</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.0437787337961817</v>
+      </c>
+      <c r="E64">
+        <v>-0.02217404068388035</v>
+      </c>
+      <c r="F64">
+        <v>0.02672440127556092</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1379829356715725</v>
+        <v>0.1506616010148964</v>
       </c>
       <c r="C65">
-        <v>0.03265512422718508</v>
+        <v>0.0342173899853578</v>
       </c>
       <c r="D65">
-        <v>0.04672647014411919</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04456689293092069</v>
+      </c>
+      <c r="E65">
+        <v>-0.005350104628589975</v>
+      </c>
+      <c r="F65">
+        <v>0.03983086605412638</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1450323363601672</v>
+        <v>0.1238737631517189</v>
       </c>
       <c r="C66">
-        <v>0.02275278412729188</v>
+        <v>0.01341876477926883</v>
       </c>
       <c r="D66">
-        <v>-0.1095513252362495</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1422785912159325</v>
+      </c>
+      <c r="E66">
+        <v>-0.06357037050296427</v>
+      </c>
+      <c r="F66">
+        <v>0.03623992876273709</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06479368143734814</v>
+        <v>0.05763518344802127</v>
       </c>
       <c r="C67">
-        <v>0.005569250062213301</v>
+        <v>0.002862099490934586</v>
       </c>
       <c r="D67">
-        <v>-0.05224360770932062</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05493881069962556</v>
+      </c>
+      <c r="E67">
+        <v>-0.01622254927966683</v>
+      </c>
+      <c r="F67">
+        <v>-0.02924046659423168</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.09930456243442058</v>
+        <v>0.11639579006818</v>
       </c>
       <c r="C68">
-        <v>0.0205808509816866</v>
+        <v>0.03330110291380566</v>
       </c>
       <c r="D68">
-        <v>0.2746156196207357</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2619920667972096</v>
+      </c>
+      <c r="E68">
+        <v>0.08694170853315453</v>
+      </c>
+      <c r="F68">
+        <v>-0.0002659968355201532</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.04099824825339274</v>
+        <v>0.03908229781292859</v>
       </c>
       <c r="C69">
-        <v>0.001399994635324993</v>
+        <v>0.001195886683325526</v>
       </c>
       <c r="D69">
-        <v>-0.006946723513608356</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008535583585254036</v>
+      </c>
+      <c r="E69">
+        <v>-0.02403510006089316</v>
+      </c>
+      <c r="F69">
+        <v>0.00177295051873803</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06558724880190155</v>
+        <v>0.06640223202599339</v>
       </c>
       <c r="C70">
-        <v>-0.0236512505638779</v>
+        <v>-0.02751977863185636</v>
       </c>
       <c r="D70">
-        <v>0.01352568355295204</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02499459397073325</v>
+      </c>
+      <c r="E70">
+        <v>0.03055380836660588</v>
+      </c>
+      <c r="F70">
+        <v>-0.1795444601001811</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.116584619635231</v>
+        <v>0.1361105238626432</v>
       </c>
       <c r="C71">
-        <v>0.02409695276480988</v>
+        <v>0.03759888939969078</v>
       </c>
       <c r="D71">
-        <v>0.2874742731902917</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2729984967568022</v>
+      </c>
+      <c r="E71">
+        <v>0.09699464903360358</v>
+      </c>
+      <c r="F71">
+        <v>0.004312355047581705</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1381289178822493</v>
+        <v>0.1425703040039883</v>
       </c>
       <c r="C72">
-        <v>0.02698096543139959</v>
+        <v>0.02723214737396156</v>
       </c>
       <c r="D72">
-        <v>0.0001268770651613877</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.00339467377387708</v>
+      </c>
+      <c r="E72">
+        <v>-0.03665476119058771</v>
+      </c>
+      <c r="F72">
+        <v>0.03268913383232119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2057448859555242</v>
+        <v>0.2041303999304989</v>
       </c>
       <c r="C73">
-        <v>0.01538585536837533</v>
+        <v>0.01299950911602824</v>
       </c>
       <c r="D73">
-        <v>-0.01581411783480634</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01706353873835339</v>
+      </c>
+      <c r="E73">
+        <v>-0.06220751646212539</v>
+      </c>
+      <c r="F73">
+        <v>0.0398718687157726</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09191442523765858</v>
+        <v>0.09479622303319961</v>
       </c>
       <c r="C74">
-        <v>0.01303501768824647</v>
+        <v>0.01334826464147079</v>
       </c>
       <c r="D74">
-        <v>-0.0230493369154816</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01693366049038753</v>
+      </c>
+      <c r="E74">
+        <v>-0.04353613120987538</v>
+      </c>
+      <c r="F74">
+        <v>0.05737774889251321</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1341650729256583</v>
+        <v>0.1274197484098729</v>
       </c>
       <c r="C75">
-        <v>0.02930458930296327</v>
+        <v>0.02832786749588454</v>
       </c>
       <c r="D75">
-        <v>-0.02946611662833969</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02990419375222442</v>
+      </c>
+      <c r="E75">
+        <v>-0.05732106947016909</v>
+      </c>
+      <c r="F75">
+        <v>0.02416520348819287</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08418024287554408</v>
+        <v>0.08907956118076676</v>
       </c>
       <c r="C77">
-        <v>0.01547050762728386</v>
+        <v>0.008063896934842782</v>
       </c>
       <c r="D77">
-        <v>-0.09180229773981259</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1129980596980643</v>
+      </c>
+      <c r="E77">
+        <v>-0.04126023399637795</v>
+      </c>
+      <c r="F77">
+        <v>0.03455032773563089</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1058346578658587</v>
+        <v>0.1004003335158797</v>
       </c>
       <c r="C78">
-        <v>0.04718055940647364</v>
+        <v>0.03926405918027345</v>
       </c>
       <c r="D78">
-        <v>-0.09309618339965978</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1141063009049516</v>
+      </c>
+      <c r="E78">
+        <v>-0.07314187975610306</v>
+      </c>
+      <c r="F78">
+        <v>0.04886881695014119</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1649601425036689</v>
+        <v>0.1636103666514047</v>
       </c>
       <c r="C79">
-        <v>0.02349910911430278</v>
+        <v>0.02305458041468898</v>
       </c>
       <c r="D79">
-        <v>-0.01236598007187088</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01454927849606616</v>
+      </c>
+      <c r="E79">
+        <v>-0.04605165986899828</v>
+      </c>
+      <c r="F79">
+        <v>0.01315305074328658</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08782545080471606</v>
+        <v>0.08181104835544949</v>
       </c>
       <c r="C80">
-        <v>0.001943907646170194</v>
+        <v>-0.001014274657492097</v>
       </c>
       <c r="D80">
-        <v>-0.04231619969274421</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05647073337441911</v>
+      </c>
+      <c r="E80">
+        <v>-0.03501223723770612</v>
+      </c>
+      <c r="F80">
+        <v>-0.01863500129173861</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1182586473207308</v>
+        <v>0.1185714156227037</v>
       </c>
       <c r="C81">
-        <v>0.03152441687983858</v>
+        <v>0.03188558011369624</v>
       </c>
       <c r="D81">
-        <v>-0.02712525027845951</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.0156617924144238</v>
+      </c>
+      <c r="E81">
+        <v>-0.05709578451572984</v>
+      </c>
+      <c r="F81">
+        <v>0.02104554086851915</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1643759033894132</v>
+        <v>0.1653480366818035</v>
       </c>
       <c r="C82">
-        <v>0.02388178384871848</v>
+        <v>0.02491170856084775</v>
       </c>
       <c r="D82">
-        <v>-0.0150549114124653</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.004518546916806152</v>
+      </c>
+      <c r="E82">
+        <v>-0.02603682203044922</v>
+      </c>
+      <c r="F82">
+        <v>0.0811378661732066</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.06943910053025068</v>
+        <v>0.05862555333395598</v>
       </c>
       <c r="C83">
-        <v>0.006338099733962752</v>
+        <v>0.002758839922704544</v>
       </c>
       <c r="D83">
-        <v>-0.03074237910234199</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05056383052695795</v>
+      </c>
+      <c r="E83">
+        <v>-0.003225699841746515</v>
+      </c>
+      <c r="F83">
+        <v>-0.02843217945368312</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06576487342644961</v>
+        <v>0.0599045486378753</v>
       </c>
       <c r="C84">
-        <v>0.01521468641101338</v>
+        <v>0.01135226038070923</v>
       </c>
       <c r="D84">
-        <v>-0.05084752318943739</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06290263947965208</v>
+      </c>
+      <c r="E84">
+        <v>-0.006969560292584428</v>
+      </c>
+      <c r="F84">
+        <v>0.00580906866686083</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1376302007000058</v>
+        <v>0.1355048200185515</v>
       </c>
       <c r="C85">
-        <v>0.02822523830449503</v>
+        <v>0.02826923656642255</v>
       </c>
       <c r="D85">
-        <v>-0.01637488709953687</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.00941660667940453</v>
+      </c>
+      <c r="E85">
+        <v>-0.03619314818263408</v>
+      </c>
+      <c r="F85">
+        <v>0.0470378217008832</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1030195011482923</v>
+        <v>0.09483720886752878</v>
       </c>
       <c r="C86">
-        <v>-0.002139803263216597</v>
+        <v>-0.006044540363974091</v>
       </c>
       <c r="D86">
-        <v>0.01301026182480162</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04822376820122921</v>
+      </c>
+      <c r="E86">
+        <v>-0.245767180393947</v>
+      </c>
+      <c r="F86">
+        <v>-0.9025070371848167</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1019323769599142</v>
+        <v>0.09448267909902872</v>
       </c>
       <c r="C87">
-        <v>0.02933760875107485</v>
+        <v>0.01923901495737351</v>
       </c>
       <c r="D87">
-        <v>-0.0599412484000247</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09356189199635777</v>
+      </c>
+      <c r="E87">
+        <v>0.05465778793596719</v>
+      </c>
+      <c r="F87">
+        <v>0.04455044004910266</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.0610024706688166</v>
+        <v>0.06038317441408286</v>
       </c>
       <c r="C88">
-        <v>0.005105310591310335</v>
+        <v>0.00211389759257635</v>
       </c>
       <c r="D88">
-        <v>-0.05349036875300208</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04977661921652176</v>
+      </c>
+      <c r="E88">
+        <v>-0.02387580592109254</v>
+      </c>
+      <c r="F88">
+        <v>0.01582233188490421</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.112744181079269</v>
+        <v>0.1286740932550546</v>
       </c>
       <c r="C89">
-        <v>0.002034689780514677</v>
+        <v>0.01355532495407763</v>
       </c>
       <c r="D89">
-        <v>0.2668829599985408</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2458334379811118</v>
+      </c>
+      <c r="E89">
+        <v>0.0885613500323137</v>
+      </c>
+      <c r="F89">
+        <v>-0.01348036087599502</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1278710307032114</v>
+        <v>0.1510456478031819</v>
       </c>
       <c r="C90">
-        <v>0.02080074295883628</v>
+        <v>0.03439968025589842</v>
       </c>
       <c r="D90">
-        <v>0.2770464679567085</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2713190895377265</v>
+      </c>
+      <c r="E90">
+        <v>0.1131798601610959</v>
+      </c>
+      <c r="F90">
+        <v>-0.01243598691548548</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1189138491841749</v>
+        <v>0.1214670793020853</v>
       </c>
       <c r="C91">
-        <v>0.01851666485934962</v>
+        <v>0.02008592960192753</v>
       </c>
       <c r="D91">
-        <v>0.00757979081813417</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01573690701929131</v>
+      </c>
+      <c r="E91">
+        <v>-0.05543857731672883</v>
+      </c>
+      <c r="F91">
+        <v>0.00169111986928378</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.133805855088524</v>
+        <v>0.1473926419448104</v>
       </c>
       <c r="C92">
-        <v>0.01023144105305554</v>
+        <v>0.02494703896196402</v>
       </c>
       <c r="D92">
-        <v>0.3137758752250756</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2909904779290059</v>
+      </c>
+      <c r="E92">
+        <v>0.1002093722841122</v>
+      </c>
+      <c r="F92">
+        <v>-0.01824043483865904</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1321678141311028</v>
+        <v>0.151077761375785</v>
       </c>
       <c r="C93">
-        <v>0.01637703767426318</v>
+        <v>0.02936622566907439</v>
       </c>
       <c r="D93">
-        <v>0.2724488062724739</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2677455374770166</v>
+      </c>
+      <c r="E93">
+        <v>0.07709005367024385</v>
+      </c>
+      <c r="F93">
+        <v>-0.003274836474776885</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1346678767865806</v>
+        <v>0.128493062691211</v>
       </c>
       <c r="C94">
-        <v>0.02644882958178003</v>
+        <v>0.02471905305537954</v>
       </c>
       <c r="D94">
-        <v>-0.04371847408612214</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04138563358841678</v>
+      </c>
+      <c r="E94">
+        <v>-0.05720998777338943</v>
+      </c>
+      <c r="F94">
+        <v>0.03673799420492658</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1298996729993968</v>
+        <v>0.1271256197996659</v>
       </c>
       <c r="C95">
-        <v>0.01094535588502235</v>
+        <v>0.003258859606427696</v>
       </c>
       <c r="D95">
-        <v>-0.06520362698137457</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09494496126695534</v>
+      </c>
+      <c r="E95">
+        <v>-0.05042065317122956</v>
+      </c>
+      <c r="F95">
+        <v>-0.008692480761675609</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1154518078319756</v>
+        <v>0.1096992369355488</v>
       </c>
       <c r="C96">
-        <v>-0.9875421848699295</v>
+        <v>-0.9870100463420519</v>
       </c>
       <c r="D96">
-        <v>0.01094559124548738</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.0521024359786993</v>
+      </c>
+      <c r="E96">
+        <v>-0.05206330564141477</v>
+      </c>
+      <c r="F96">
+        <v>0.04311333248311629</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.190885333751576</v>
+        <v>0.1907288822532654</v>
       </c>
       <c r="C97">
-        <v>-0.007250749280077233</v>
+        <v>-0.006958516762620093</v>
       </c>
       <c r="D97">
-        <v>0.01627586595169568</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01898574020499903</v>
+      </c>
+      <c r="E97">
+        <v>-0.02368804375205209</v>
+      </c>
+      <c r="F97">
+        <v>-0.09151311090562461</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1982442969827229</v>
+        <v>0.2059133306587417</v>
       </c>
       <c r="C98">
-        <v>0.01012221804313713</v>
+        <v>0.00720921666838964</v>
       </c>
       <c r="D98">
-        <v>-0.01668901668350785</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01352470195917502</v>
+      </c>
+      <c r="E98">
+        <v>0.07532983475579343</v>
+      </c>
+      <c r="F98">
+        <v>-0.09165784576371862</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.0571594754646628</v>
+        <v>0.05492928233846051</v>
       </c>
       <c r="C99">
-        <v>-0.002071938584527785</v>
+        <v>-0.004470074708604274</v>
       </c>
       <c r="D99">
-        <v>-0.02227741722436218</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03911313788200314</v>
+      </c>
+      <c r="E99">
+        <v>-0.02162465530261863</v>
+      </c>
+      <c r="F99">
+        <v>0.004135135236755669</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1444613644566879</v>
+        <v>0.1284784538182776</v>
       </c>
       <c r="C100">
-        <v>-0.03693196248368025</v>
+        <v>-0.05331889933551748</v>
       </c>
       <c r="D100">
-        <v>-0.4328496365128068</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3450702639406384</v>
+      </c>
+      <c r="E100">
+        <v>0.8834322289956985</v>
+      </c>
+      <c r="F100">
+        <v>-0.1728102923535323</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02684331587462943</v>
+        <v>0.02864100380065101</v>
       </c>
       <c r="C101">
-        <v>0.009878986584513347</v>
+        <v>0.008697897960512497</v>
       </c>
       <c r="D101">
-        <v>-0.01883151224199214</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.0310766538610285</v>
+      </c>
+      <c r="E101">
+        <v>-0.01318609818964132</v>
+      </c>
+      <c r="F101">
+        <v>-0.01403690476242467</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
